--- a/Tables/did_bc.xlsx
+++ b/Tables/did_bc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301844D1-7F15-4BFF-BAB1-953030647D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56B764D-9DBF-4EC9-BABD-CD2CE9031CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{3B7DF2E5-3837-4DB5-9760-48C6AE8E79AD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Number of municipalities</t>
   </si>
@@ -73,9 +73,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>$\leq$ 50</t>
-  </si>
-  <si>
     <t>[51-250]</t>
   </si>
   <si>
@@ -86,6 +83,12 @@
   </si>
   <si>
     <t>Employees</t>
+  </si>
+  <si>
+    <t>$=$ 1</t>
+  </si>
+  <si>
+    <t>[2-50]</t>
   </si>
 </sst>
 </file>
@@ -234,30 +237,42 @@
           <cell r="I2" t="str">
             <v>(8)</v>
           </cell>
+          <cell r="J2" t="str">
+            <v>(9)</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>(10)</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
             <v>-0.0029</v>
           </cell>
           <cell r="C5" t="str">
-            <v>0.0013</v>
+            <v>0.011</v>
           </cell>
           <cell r="D5" t="str">
+            <v>-0.0019</v>
+          </cell>
+          <cell r="E5" t="str">
             <v>-0.011</v>
           </cell>
-          <cell r="E5" t="str">
+          <cell r="F5" t="str">
             <v>-0.021</v>
           </cell>
-          <cell r="F5" t="str">
+          <cell r="G5" t="str">
             <v>-0.055***</v>
           </cell>
-          <cell r="G5" t="str">
-            <v>-0.0079</v>
-          </cell>
           <cell r="H5" t="str">
+            <v>0.011</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>-0.0062</v>
+          </cell>
+          <cell r="J5" t="str">
             <v>-0.0088</v>
           </cell>
-          <cell r="I5" t="str">
+          <cell r="K5" t="str">
             <v>-0.11**</v>
           </cell>
         </row>
@@ -269,24 +284,30 @@
             <v>(0.011)</v>
           </cell>
           <cell r="C6" t="str">
+            <v>(0.015)</v>
+          </cell>
+          <cell r="D6" t="str">
             <v>(0.011)</v>
           </cell>
-          <cell r="D6" t="str">
+          <cell r="E6" t="str">
             <v>(0.023)</v>
           </cell>
-          <cell r="E6" t="str">
+          <cell r="F6" t="str">
             <v>(0.034)</v>
           </cell>
-          <cell r="F6" t="str">
+          <cell r="G6" t="str">
             <v>(0.018)</v>
           </cell>
-          <cell r="G6" t="str">
+          <cell r="H6" t="str">
+            <v>(0.015)</v>
+          </cell>
+          <cell r="I6" t="str">
             <v>(0.013)</v>
           </cell>
-          <cell r="H6" t="str">
+          <cell r="J6" t="str">
             <v>(0.026)</v>
           </cell>
-          <cell r="I6" t="str">
+          <cell r="K6" t="str">
             <v>(0.048)</v>
           </cell>
         </row>
@@ -295,24 +316,30 @@
             <v>-0.0034</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-0.00082</v>
+            <v>0.00070</v>
           </cell>
           <cell r="D8" t="str">
+            <v>-0.000010</v>
+          </cell>
+          <cell r="E8" t="str">
             <v>-0.0036</v>
           </cell>
-          <cell r="E8" t="str">
+          <cell r="F8" t="str">
             <v>-0.025</v>
           </cell>
-          <cell r="F8" t="str">
+          <cell r="G8" t="str">
             <v>-0.036***</v>
           </cell>
-          <cell r="G8" t="str">
-            <v>-0.0055</v>
-          </cell>
           <cell r="H8" t="str">
+            <v>0.00070</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>-0.0041</v>
+          </cell>
+          <cell r="J8" t="str">
             <v>-0.0017</v>
           </cell>
-          <cell r="I8" t="str">
+          <cell r="K8" t="str">
             <v>-0.098**</v>
           </cell>
         </row>
@@ -324,24 +351,30 @@
             <v>(0.0061)</v>
           </cell>
           <cell r="C9" t="str">
+            <v>(0.0089)</v>
+          </cell>
+          <cell r="D9" t="str">
             <v>(0.0063)</v>
           </cell>
-          <cell r="D9" t="str">
+          <cell r="E9" t="str">
             <v>(0.015)</v>
           </cell>
-          <cell r="E9" t="str">
+          <cell r="F9" t="str">
             <v>(0.022)</v>
           </cell>
-          <cell r="F9" t="str">
+          <cell r="G9" t="str">
             <v>(0.011)</v>
           </cell>
-          <cell r="G9" t="str">
-            <v>(0.0075)</v>
-          </cell>
           <cell r="H9" t="str">
+            <v>(0.0089)</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>(0.0076)</v>
+          </cell>
+          <cell r="J9" t="str">
             <v>(0.017)</v>
           </cell>
-          <cell r="I9" t="str">
+          <cell r="K9" t="str">
             <v>(0.048)</v>
           </cell>
         </row>
@@ -350,24 +383,30 @@
             <v>-0.00010</v>
           </cell>
           <cell r="C11" t="str">
-            <v>0.0013</v>
+            <v>0.000015</v>
           </cell>
           <cell r="D11" t="str">
+            <v>0.0020</v>
+          </cell>
+          <cell r="E11" t="str">
             <v>-0.0041</v>
           </cell>
-          <cell r="E11" t="str">
+          <cell r="F11" t="str">
             <v>-0.010</v>
           </cell>
-          <cell r="F11" t="str">
+          <cell r="G11" t="str">
             <v>-0.015**</v>
           </cell>
-          <cell r="G11" t="str">
-            <v>0.00012</v>
-          </cell>
           <cell r="H11" t="str">
+            <v>0.000015</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>0.00082</v>
+          </cell>
+          <cell r="J11" t="str">
             <v>-0.00040</v>
           </cell>
-          <cell r="I11" t="str">
+          <cell r="K11" t="str">
             <v>-0.050*</v>
           </cell>
         </row>
@@ -379,24 +418,30 @@
             <v>(0.0031)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(0.0032)</v>
+            <v>(0.0048)</v>
           </cell>
           <cell r="D12" t="str">
+            <v>(0.0033)</v>
+          </cell>
+          <cell r="E12" t="str">
             <v>(0.0090)</v>
           </cell>
-          <cell r="E12" t="str">
+          <cell r="F12" t="str">
             <v>(0.011)</v>
           </cell>
-          <cell r="F12" t="str">
+          <cell r="G12" t="str">
             <v>(0.0061)</v>
           </cell>
-          <cell r="G12" t="str">
+          <cell r="H12" t="str">
+            <v>(0.0048)</v>
+          </cell>
+          <cell r="I12" t="str">
             <v>(0.0042)</v>
           </cell>
-          <cell r="H12" t="str">
+          <cell r="J12" t="str">
             <v>(0.0098)</v>
           </cell>
-          <cell r="I12" t="str">
+          <cell r="K12" t="str">
             <v>(0.027)</v>
           </cell>
         </row>
@@ -405,24 +450,30 @@
             <v>-0.0069**</v>
           </cell>
           <cell r="C14" t="str">
-            <v>-0.0080***</v>
+            <v>-0.012**</v>
           </cell>
           <cell r="D14" t="str">
+            <v>-0.0061**</v>
+          </cell>
+          <cell r="E14" t="str">
             <v>-0.0065</v>
           </cell>
-          <cell r="E14" t="str">
+          <cell r="F14" t="str">
             <v>-0.0088</v>
           </cell>
-          <cell r="F14" t="str">
+          <cell r="G14" t="str">
             <v>0.012**</v>
           </cell>
-          <cell r="G14" t="str">
-            <v>-0.0042</v>
-          </cell>
           <cell r="H14" t="str">
+            <v>-0.012**</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>-0.0040</v>
+          </cell>
+          <cell r="J14" t="str">
             <v>-0.0056</v>
           </cell>
-          <cell r="I14" t="str">
+          <cell r="K14" t="str">
             <v>0.037**</v>
           </cell>
         </row>
@@ -434,24 +485,30 @@
             <v>(0.0028)</v>
           </cell>
           <cell r="C15" t="str">
-            <v>(0.0029)</v>
+            <v>(0.0047)</v>
           </cell>
           <cell r="D15" t="str">
+            <v>(0.0031)</v>
+          </cell>
+          <cell r="E15" t="str">
             <v>(0.0096)</v>
           </cell>
-          <cell r="E15" t="str">
+          <cell r="F15" t="str">
             <v>(0.011)</v>
           </cell>
-          <cell r="F15" t="str">
+          <cell r="G15" t="str">
             <v>(0.0050)</v>
           </cell>
-          <cell r="G15" t="str">
-            <v>(0.0037)</v>
-          </cell>
           <cell r="H15" t="str">
+            <v>(0.0047)</v>
+          </cell>
+          <cell r="I15" t="str">
+            <v>(0.0039)</v>
+          </cell>
+          <cell r="J15" t="str">
             <v>(0.0092)</v>
           </cell>
-          <cell r="I15" t="str">
+          <cell r="K15" t="str">
             <v>(0.019)</v>
           </cell>
         </row>
@@ -460,24 +517,30 @@
             <v>-0.014***</v>
           </cell>
           <cell r="C17" t="str">
-            <v>-0.016***</v>
+            <v>-0.019**</v>
           </cell>
           <cell r="D17" t="str">
+            <v>-0.014***</v>
+          </cell>
+          <cell r="E17" t="str">
             <v>-0.011</v>
           </cell>
-          <cell r="E17" t="str">
+          <cell r="F17" t="str">
             <v>-0.0088</v>
           </cell>
-          <cell r="F17" t="str">
+          <cell r="G17" t="str">
             <v>0.019**</v>
           </cell>
-          <cell r="G17" t="str">
+          <cell r="H17" t="str">
+            <v>-0.019**</v>
+          </cell>
+          <cell r="I17" t="str">
             <v>-0.011*</v>
           </cell>
-          <cell r="H17" t="str">
+          <cell r="J17" t="str">
             <v>-0.0079</v>
           </cell>
-          <cell r="I17" t="str">
+          <cell r="K17" t="str">
             <v>0.068**</v>
           </cell>
         </row>
@@ -489,24 +552,30 @@
             <v>(0.0049)</v>
           </cell>
           <cell r="C18" t="str">
-            <v>(0.0051)</v>
+            <v>(0.0076)</v>
           </cell>
           <cell r="D18" t="str">
+            <v>(0.0054)</v>
+          </cell>
+          <cell r="E18" t="str">
             <v>(0.016)</v>
           </cell>
-          <cell r="E18" t="str">
+          <cell r="F18" t="str">
             <v>(0.020)</v>
           </cell>
-          <cell r="F18" t="str">
+          <cell r="G18" t="str">
             <v>(0.0090)</v>
           </cell>
-          <cell r="G18" t="str">
-            <v>(0.0062)</v>
-          </cell>
           <cell r="H18" t="str">
+            <v>(0.0076)</v>
+          </cell>
+          <cell r="I18" t="str">
+            <v>(0.0066)</v>
+          </cell>
+          <cell r="J18" t="str">
             <v>(0.016)</v>
           </cell>
-          <cell r="I18" t="str">
+          <cell r="K18" t="str">
             <v>(0.032)</v>
           </cell>
         </row>
@@ -515,24 +584,30 @@
             <v>-0.022***</v>
           </cell>
           <cell r="C20" t="str">
-            <v>-0.025***</v>
+            <v>-0.028***</v>
           </cell>
           <cell r="D20" t="str">
+            <v>-0.023***</v>
+          </cell>
+          <cell r="E20" t="str">
             <v>-0.0094</v>
           </cell>
-          <cell r="E20" t="str">
+          <cell r="F20" t="str">
             <v>-0.020</v>
           </cell>
-          <cell r="F20" t="str">
+          <cell r="G20" t="str">
             <v>0.021*</v>
           </cell>
-          <cell r="G20" t="str">
-            <v>-0.017**</v>
-          </cell>
           <cell r="H20" t="str">
+            <v>-0.028***</v>
+          </cell>
+          <cell r="I20" t="str">
+            <v>-0.018*</v>
+          </cell>
+          <cell r="J20" t="str">
             <v>-0.0077</v>
           </cell>
-          <cell r="I20" t="str">
+          <cell r="K20" t="str">
             <v>0.072*</v>
           </cell>
         </row>
@@ -544,24 +619,30 @@
             <v>(0.0068)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(0.0070)</v>
+            <v>(0.010)</v>
           </cell>
           <cell r="D21" t="str">
+            <v>(0.0076)</v>
+          </cell>
+          <cell r="E21" t="str">
             <v>(0.023)</v>
           </cell>
-          <cell r="E21" t="str">
+          <cell r="F21" t="str">
             <v>(0.029)</v>
           </cell>
-          <cell r="F21" t="str">
+          <cell r="G21" t="str">
             <v>(0.012)</v>
           </cell>
-          <cell r="G21" t="str">
-            <v>(0.0085)</v>
-          </cell>
           <cell r="H21" t="str">
+            <v>(0.010)</v>
+          </cell>
+          <cell r="I21" t="str">
+            <v>(0.0089)</v>
+          </cell>
+          <cell r="J21" t="str">
             <v>(0.023)</v>
           </cell>
-          <cell r="I21" t="str">
+          <cell r="K21" t="str">
             <v>(0.040)</v>
           </cell>
         </row>
@@ -570,24 +651,30 @@
             <v>-0.030***</v>
           </cell>
           <cell r="C23" t="str">
+            <v>-0.034***</v>
+          </cell>
+          <cell r="D23" t="str">
             <v>-0.033***</v>
           </cell>
-          <cell r="D23" t="str">
+          <cell r="E23" t="str">
             <v>-0.011</v>
           </cell>
-          <cell r="E23" t="str">
+          <cell r="F23" t="str">
             <v>-0.032</v>
           </cell>
-          <cell r="F23" t="str">
+          <cell r="G23" t="str">
             <v>0.012</v>
           </cell>
-          <cell r="G23" t="str">
-            <v>-0.027***</v>
-          </cell>
           <cell r="H23" t="str">
+            <v>-0.034***</v>
+          </cell>
+          <cell r="I23" t="str">
+            <v>-0.028**</v>
+          </cell>
+          <cell r="J23" t="str">
             <v>-0.010</v>
           </cell>
-          <cell r="I23" t="str">
+          <cell r="K23" t="str">
             <v>0.059</v>
           </cell>
         </row>
@@ -599,24 +686,30 @@
             <v>(0.0083)</v>
           </cell>
           <cell r="C24" t="str">
-            <v>(0.0085)</v>
+            <v>(0.012)</v>
           </cell>
           <cell r="D24" t="str">
+            <v>(0.0092)</v>
+          </cell>
+          <cell r="E24" t="str">
             <v>(0.029)</v>
           </cell>
-          <cell r="E24" t="str">
+          <cell r="F24" t="str">
             <v>(0.036)</v>
           </cell>
-          <cell r="F24" t="str">
+          <cell r="G24" t="str">
             <v>(0.015)</v>
           </cell>
-          <cell r="G24" t="str">
-            <v>(0.010)</v>
-          </cell>
           <cell r="H24" t="str">
+            <v>(0.012)</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>(0.011)</v>
+          </cell>
+          <cell r="J24" t="str">
             <v>(0.031)</v>
           </cell>
-          <cell r="I24" t="str">
+          <cell r="K24" t="str">
             <v>(0.044)</v>
           </cell>
         </row>
@@ -625,24 +718,30 @@
             <v>-0.044***</v>
           </cell>
           <cell r="C26" t="str">
-            <v>-0.047***</v>
+            <v>-0.045***</v>
           </cell>
           <cell r="D26" t="str">
+            <v>-0.049***</v>
+          </cell>
+          <cell r="E26" t="str">
             <v>-0.028</v>
           </cell>
-          <cell r="E26" t="str">
+          <cell r="F26" t="str">
             <v>-0.049</v>
           </cell>
-          <cell r="F26" t="str">
+          <cell r="G26" t="str">
             <v>0.000021</v>
           </cell>
-          <cell r="G26" t="str">
-            <v>-0.039***</v>
-          </cell>
           <cell r="H26" t="str">
+            <v>-0.045***</v>
+          </cell>
+          <cell r="I26" t="str">
+            <v>-0.040***</v>
+          </cell>
+          <cell r="J26" t="str">
             <v>-0.034</v>
           </cell>
-          <cell r="I26" t="str">
+          <cell r="K26" t="str">
             <v>0.041</v>
           </cell>
         </row>
@@ -654,24 +753,30 @@
             <v>(0.010)</v>
           </cell>
           <cell r="C27" t="str">
-            <v>(0.010)</v>
+            <v>(0.015)</v>
           </cell>
           <cell r="D27" t="str">
+            <v>(0.011)</v>
+          </cell>
+          <cell r="E27" t="str">
             <v>(0.037)</v>
           </cell>
-          <cell r="E27" t="str">
+          <cell r="F27" t="str">
             <v>(0.043)</v>
           </cell>
-          <cell r="F27" t="str">
+          <cell r="G27" t="str">
             <v>(0.019)</v>
           </cell>
-          <cell r="G27" t="str">
-            <v>(0.013)</v>
-          </cell>
           <cell r="H27" t="str">
+            <v>(0.015)</v>
+          </cell>
+          <cell r="I27" t="str">
+            <v>(0.014)</v>
+          </cell>
+          <cell r="J27" t="str">
             <v>(0.039)</v>
           </cell>
-          <cell r="I27" t="str">
+          <cell r="K27" t="str">
             <v>(0.051)</v>
           </cell>
         </row>
@@ -680,24 +785,30 @@
             <v>65424</v>
           </cell>
           <cell r="C29" t="str">
-            <v>65360</v>
+            <v>63586</v>
           </cell>
           <cell r="D29" t="str">
+            <v>65200</v>
+          </cell>
+          <cell r="E29" t="str">
             <v>42839</v>
           </cell>
-          <cell r="E29" t="str">
+          <cell r="F29" t="str">
             <v>24402</v>
           </cell>
-          <cell r="F29" t="str">
+          <cell r="G29" t="str">
             <v>65424</v>
           </cell>
-          <cell r="G29" t="str">
-            <v>65360</v>
-          </cell>
           <cell r="H29" t="str">
+            <v>63586</v>
+          </cell>
+          <cell r="I29" t="str">
+            <v>65200</v>
+          </cell>
+          <cell r="J29" t="str">
             <v>42839</v>
           </cell>
-          <cell r="I29" t="str">
+          <cell r="K29" t="str">
             <v>24402</v>
           </cell>
         </row>
@@ -709,24 +820,30 @@
             <v>0.299</v>
           </cell>
           <cell r="C30" t="str">
-            <v>0.291</v>
+            <v>0.186</v>
           </cell>
           <cell r="D30" t="str">
+            <v>0.231</v>
+          </cell>
+          <cell r="E30" t="str">
             <v>0.313</v>
           </cell>
-          <cell r="E30" t="str">
+          <cell r="F30" t="str">
             <v>0.318</v>
           </cell>
-          <cell r="F30" t="str">
+          <cell r="G30" t="str">
             <v>0.230</v>
           </cell>
-          <cell r="G30" t="str">
-            <v>0.216</v>
-          </cell>
           <cell r="H30" t="str">
+            <v>0.186</v>
+          </cell>
+          <cell r="I30" t="str">
+            <v>0.201</v>
+          </cell>
+          <cell r="J30" t="str">
             <v>0.270</v>
           </cell>
-          <cell r="I30" t="str">
+          <cell r="K30" t="str">
             <v>0.267</v>
           </cell>
         </row>
@@ -738,24 +855,30 @@
             <v>4.20</v>
           </cell>
           <cell r="C31" t="str">
-            <v>4.16</v>
+            <v>3.21</v>
           </cell>
           <cell r="D31" t="str">
+            <v>3.69</v>
+          </cell>
+          <cell r="E31" t="str">
             <v>1.60</v>
           </cell>
-          <cell r="E31" t="str">
+          <cell r="F31" t="str">
             <v>1.28</v>
           </cell>
-          <cell r="F31" t="str">
+          <cell r="G31" t="str">
             <v>6.39</v>
           </cell>
-          <cell r="G31" t="str">
-            <v>5.68</v>
-          </cell>
           <cell r="H31" t="str">
+            <v>3.21</v>
+          </cell>
+          <cell r="I31" t="str">
+            <v>5.59</v>
+          </cell>
+          <cell r="J31" t="str">
             <v>6.19</v>
           </cell>
-          <cell r="I31" t="str">
+          <cell r="K31" t="str">
             <v>7.61</v>
           </cell>
         </row>
@@ -767,21 +890,27 @@
             <v>1392</v>
           </cell>
           <cell r="D32" t="str">
+            <v>1392</v>
+          </cell>
+          <cell r="E32" t="str">
             <v>1205</v>
           </cell>
-          <cell r="E32" t="str">
+          <cell r="F32" t="str">
             <v>764</v>
-          </cell>
-          <cell r="F32" t="str">
-            <v>1392</v>
           </cell>
           <cell r="G32" t="str">
             <v>1392</v>
           </cell>
           <cell r="H32" t="str">
+            <v>1392</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>1392</v>
+          </cell>
+          <cell r="J32" t="str">
             <v>1205</v>
           </cell>
-          <cell r="I32" t="str">
+          <cell r="K32" t="str">
             <v>764</v>
           </cell>
         </row>
@@ -1088,63 +1217,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EAF21A-6A99-4218-B651-96B944D152EB}">
-  <dimension ref="A3:J28"/>
+  <dimension ref="A3:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J27"/>
+      <selection activeCell="A3" sqref="A3:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="4.90625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="8.7265625" style="1"/>
+    <col min="2" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="4.90625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="str">
         <f>[1]did_bc!A2</f>
         <v/>
@@ -1165,11 +1302,11 @@
         <f>[1]did_bc!E2</f>
         <v>(4)</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="str">
+      <c r="F5" s="6" t="str">
         <f>[1]did_bc!F2</f>
         <v>(5)</v>
       </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6" t="str">
         <f>[1]did_bc!G2</f>
         <v>(6)</v>
@@ -1182,8 +1319,16 @@
         <f>[1]did_bc!I2</f>
         <v>(8)</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="6" t="str">
+        <f>[1]did_bc!J2</f>
+        <v>(9)</v>
+      </c>
+      <c r="L5" s="6" t="str">
+        <f>[1]did_bc!K2</f>
+        <v>(10)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1193,34 +1338,42 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>[1]did_bc!C5</f>
-        <v>0.0013</v>
+        <v>0.011</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]did_bc!D5</f>
-        <v>-0.011</v>
+        <v>-0.0019</v>
       </c>
       <c r="E6" s="1" t="str">
         <f>[1]did_bc!E5</f>
+        <v>-0.011</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>[1]did_bc!F5</f>
         <v>-0.021</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f>[1]did_bc!F5</f>
-        <v>-0.055***</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>[1]did_bc!G5</f>
-        <v>-0.0079</v>
+        <v>-0.055***</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>[1]did_bc!H5</f>
-        <v>-0.0088</v>
+        <v>0.011</v>
       </c>
       <c r="J6" s="1" t="str">
         <f>[1]did_bc!I5</f>
+        <v>-0.0062</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f>[1]did_bc!J5</f>
+        <v>-0.0088</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f>[1]did_bc!K5</f>
         <v>-0.11**</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>[1]did_bc!A6</f>
         <v/>
@@ -1231,34 +1384,42 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]did_bc!C6</f>
-        <v>(0.011)</v>
+        <v>(0.015)</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]did_bc!D6</f>
-        <v>(0.023)</v>
+        <v>(0.011)</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>[1]did_bc!E6</f>
+        <v>(0.023)</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>[1]did_bc!F6</f>
         <v>(0.034)</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f>[1]did_bc!F6</f>
-        <v>(0.018)</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>[1]did_bc!G6</f>
-        <v>(0.013)</v>
+        <v>(0.018)</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>[1]did_bc!H6</f>
-        <v>(0.026)</v>
+        <v>(0.015)</v>
       </c>
       <c r="J7" s="1" t="str">
         <f>[1]did_bc!I6</f>
+        <v>(0.013)</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f>[1]did_bc!J6</f>
+        <v>(0.026)</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f>[1]did_bc!K6</f>
         <v>(0.048)</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1268,34 +1429,42 @@
       </c>
       <c r="C8" s="1" t="str">
         <f>[1]did_bc!C8</f>
-        <v>-0.00082</v>
+        <v>0.00070</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>[1]did_bc!D8</f>
-        <v>-0.0036</v>
+        <v>-0.000010</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>[1]did_bc!E8</f>
+        <v>-0.0036</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>[1]did_bc!F8</f>
         <v>-0.025</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f>[1]did_bc!F8</f>
-        <v>-0.036***</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>[1]did_bc!G8</f>
-        <v>-0.0055</v>
+        <v>-0.036***</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>[1]did_bc!H8</f>
-        <v>-0.0017</v>
+        <v>0.00070</v>
       </c>
       <c r="J8" s="1" t="str">
         <f>[1]did_bc!I8</f>
+        <v>-0.0041</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f>[1]did_bc!J8</f>
+        <v>-0.0017</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f>[1]did_bc!K8</f>
         <v>-0.098**</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>[1]did_bc!A9</f>
         <v/>
@@ -1306,34 +1475,42 @@
       </c>
       <c r="C9" s="1" t="str">
         <f>[1]did_bc!C9</f>
-        <v>(0.0063)</v>
+        <v>(0.0089)</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>[1]did_bc!D9</f>
-        <v>(0.015)</v>
+        <v>(0.0063)</v>
       </c>
       <c r="E9" s="1" t="str">
         <f>[1]did_bc!E9</f>
+        <v>(0.015)</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f>[1]did_bc!F9</f>
         <v>(0.022)</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f>[1]did_bc!F9</f>
-        <v>(0.011)</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>[1]did_bc!G9</f>
-        <v>(0.0075)</v>
+        <v>(0.011)</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>[1]did_bc!H9</f>
-        <v>(0.017)</v>
+        <v>(0.0089)</v>
       </c>
       <c r="J9" s="1" t="str">
         <f>[1]did_bc!I9</f>
+        <v>(0.0076)</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f>[1]did_bc!J9</f>
+        <v>(0.017)</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f>[1]did_bc!K9</f>
         <v>(0.048)</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1343,34 +1520,42 @@
       </c>
       <c r="C10" s="1" t="str">
         <f>[1]did_bc!C11</f>
-        <v>0.0013</v>
+        <v>0.000015</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>[1]did_bc!D11</f>
-        <v>-0.0041</v>
+        <v>0.0020</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>[1]did_bc!E11</f>
+        <v>-0.0041</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>[1]did_bc!F11</f>
         <v>-0.010</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f>[1]did_bc!F11</f>
-        <v>-0.015**</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>[1]did_bc!G11</f>
-        <v>0.00012</v>
+        <v>-0.015**</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>[1]did_bc!H11</f>
-        <v>-0.00040</v>
+        <v>0.000015</v>
       </c>
       <c r="J10" s="1" t="str">
         <f>[1]did_bc!I11</f>
+        <v>0.00082</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f>[1]did_bc!J11</f>
+        <v>-0.00040</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f>[1]did_bc!K11</f>
         <v>-0.050*</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>[1]did_bc!A12</f>
         <v/>
@@ -1381,34 +1566,45 @@
       </c>
       <c r="C11" s="1" t="str">
         <f>[1]did_bc!C12</f>
-        <v>(0.0032)</v>
+        <v>(0.0048)</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>[1]did_bc!D12</f>
-        <v>(0.0090)</v>
+        <v>(0.0033)</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>[1]did_bc!E12</f>
+        <v>(0.0090)</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>[1]did_bc!F12</f>
         <v>(0.011)</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f>[1]did_bc!F12</f>
-        <v>(0.0061)</v>
       </c>
       <c r="H11" s="1" t="str">
         <f>[1]did_bc!G12</f>
-        <v>(0.0042)</v>
+        <v>(0.0061)</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>[1]did_bc!H12</f>
-        <v>(0.0098)</v>
+        <v>(0.0048)</v>
       </c>
       <c r="J11" s="1" t="str">
         <f>[1]did_bc!I12</f>
+        <v>(0.0042)</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f>[1]did_bc!J12</f>
+        <v>(0.0098)</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f>[1]did_bc!K12</f>
         <v>(0.027)</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1418,34 +1614,42 @@
       </c>
       <c r="C13" s="1" t="str">
         <f>[1]did_bc!C14</f>
-        <v>-0.0080***</v>
+        <v>-0.012**</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>[1]did_bc!D14</f>
-        <v>-0.0065</v>
+        <v>-0.0061**</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>[1]did_bc!E14</f>
+        <v>-0.0065</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f>[1]did_bc!F14</f>
         <v>-0.0088</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f>[1]did_bc!F14</f>
-        <v>0.012**</v>
       </c>
       <c r="H13" s="1" t="str">
         <f>[1]did_bc!G14</f>
-        <v>-0.0042</v>
+        <v>0.012**</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>[1]did_bc!H14</f>
-        <v>-0.0056</v>
+        <v>-0.012**</v>
       </c>
       <c r="J13" s="1" t="str">
         <f>[1]did_bc!I14</f>
+        <v>-0.0040</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f>[1]did_bc!J14</f>
+        <v>-0.0056</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f>[1]did_bc!K14</f>
         <v>0.037**</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>[1]did_bc!A15</f>
         <v/>
@@ -1456,34 +1660,42 @@
       </c>
       <c r="C14" s="1" t="str">
         <f>[1]did_bc!C15</f>
-        <v>(0.0029)</v>
+        <v>(0.0047)</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>[1]did_bc!D15</f>
-        <v>(0.0096)</v>
+        <v>(0.0031)</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>[1]did_bc!E15</f>
+        <v>(0.0096)</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>[1]did_bc!F15</f>
         <v>(0.011)</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f>[1]did_bc!F15</f>
-        <v>(0.0050)</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>[1]did_bc!G15</f>
-        <v>(0.0037)</v>
+        <v>(0.0050)</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>[1]did_bc!H15</f>
-        <v>(0.0092)</v>
+        <v>(0.0047)</v>
       </c>
       <c r="J14" s="1" t="str">
         <f>[1]did_bc!I15</f>
+        <v>(0.0039)</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f>[1]did_bc!J15</f>
+        <v>(0.0092)</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f>[1]did_bc!K15</f>
         <v>(0.019)</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1493,34 +1705,42 @@
       </c>
       <c r="C15" s="1" t="str">
         <f>[1]did_bc!C17</f>
-        <v>-0.016***</v>
+        <v>-0.019**</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>[1]did_bc!D17</f>
-        <v>-0.011</v>
+        <v>-0.014***</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>[1]did_bc!E17</f>
+        <v>-0.011</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>[1]did_bc!F17</f>
         <v>-0.0088</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f>[1]did_bc!F17</f>
-        <v>0.019**</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>[1]did_bc!G17</f>
-        <v>-0.011*</v>
+        <v>0.019**</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>[1]did_bc!H17</f>
-        <v>-0.0079</v>
+        <v>-0.019**</v>
       </c>
       <c r="J15" s="1" t="str">
         <f>[1]did_bc!I17</f>
+        <v>-0.011*</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f>[1]did_bc!J17</f>
+        <v>-0.0079</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f>[1]did_bc!K17</f>
         <v>0.068**</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>[1]did_bc!A18</f>
         <v/>
@@ -1531,34 +1751,42 @@
       </c>
       <c r="C16" s="1" t="str">
         <f>[1]did_bc!C18</f>
-        <v>(0.0051)</v>
+        <v>(0.0076)</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>[1]did_bc!D18</f>
-        <v>(0.016)</v>
+        <v>(0.0054)</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>[1]did_bc!E18</f>
+        <v>(0.016)</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>[1]did_bc!F18</f>
         <v>(0.020)</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f>[1]did_bc!F18</f>
-        <v>(0.0090)</v>
       </c>
       <c r="H16" s="1" t="str">
         <f>[1]did_bc!G18</f>
-        <v>(0.0062)</v>
+        <v>(0.0090)</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>[1]did_bc!H18</f>
-        <v>(0.016)</v>
+        <v>(0.0076)</v>
       </c>
       <c r="J16" s="1" t="str">
         <f>[1]did_bc!I18</f>
+        <v>(0.0066)</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f>[1]did_bc!J18</f>
+        <v>(0.016)</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f>[1]did_bc!K18</f>
         <v>(0.032)</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1568,34 +1796,42 @@
       </c>
       <c r="C17" s="1" t="str">
         <f>[1]did_bc!C20</f>
-        <v>-0.025***</v>
+        <v>-0.028***</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>[1]did_bc!D20</f>
-        <v>-0.0094</v>
+        <v>-0.023***</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>[1]did_bc!E20</f>
+        <v>-0.0094</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>[1]did_bc!F20</f>
         <v>-0.020</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f>[1]did_bc!F20</f>
-        <v>0.021*</v>
       </c>
       <c r="H17" s="1" t="str">
         <f>[1]did_bc!G20</f>
-        <v>-0.017**</v>
+        <v>0.021*</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>[1]did_bc!H20</f>
-        <v>-0.0077</v>
+        <v>-0.028***</v>
       </c>
       <c r="J17" s="1" t="str">
         <f>[1]did_bc!I20</f>
+        <v>-0.018*</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f>[1]did_bc!J20</f>
+        <v>-0.0077</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f>[1]did_bc!K20</f>
         <v>0.072*</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>[1]did_bc!A21</f>
         <v/>
@@ -1606,34 +1842,42 @@
       </c>
       <c r="C18" s="1" t="str">
         <f>[1]did_bc!C21</f>
-        <v>(0.0070)</v>
+        <v>(0.010)</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>[1]did_bc!D21</f>
-        <v>(0.023)</v>
+        <v>(0.0076)</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>[1]did_bc!E21</f>
+        <v>(0.023)</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f>[1]did_bc!F21</f>
         <v>(0.029)</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f>[1]did_bc!F21</f>
-        <v>(0.012)</v>
       </c>
       <c r="H18" s="1" t="str">
         <f>[1]did_bc!G21</f>
-        <v>(0.0085)</v>
+        <v>(0.012)</v>
       </c>
       <c r="I18" s="1" t="str">
         <f>[1]did_bc!H21</f>
-        <v>(0.023)</v>
+        <v>(0.010)</v>
       </c>
       <c r="J18" s="1" t="str">
         <f>[1]did_bc!I21</f>
+        <v>(0.0089)</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f>[1]did_bc!J21</f>
+        <v>(0.023)</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f>[1]did_bc!K21</f>
         <v>(0.040)</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1643,34 +1887,42 @@
       </c>
       <c r="C19" s="1" t="str">
         <f>[1]did_bc!C23</f>
-        <v>-0.033***</v>
+        <v>-0.034***</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>[1]did_bc!D23</f>
-        <v>-0.011</v>
+        <v>-0.033***</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>[1]did_bc!E23</f>
+        <v>-0.011</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f>[1]did_bc!F23</f>
         <v>-0.032</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f>[1]did_bc!F23</f>
-        <v>0.012</v>
       </c>
       <c r="H19" s="1" t="str">
         <f>[1]did_bc!G23</f>
-        <v>-0.027***</v>
+        <v>0.012</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>[1]did_bc!H23</f>
-        <v>-0.010</v>
+        <v>-0.034***</v>
       </c>
       <c r="J19" s="1" t="str">
         <f>[1]did_bc!I23</f>
+        <v>-0.028**</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f>[1]did_bc!J23</f>
+        <v>-0.010</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f>[1]did_bc!K23</f>
         <v>0.059</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>[1]did_bc!A24</f>
         <v/>
@@ -1681,34 +1933,42 @@
       </c>
       <c r="C20" s="1" t="str">
         <f>[1]did_bc!C24</f>
-        <v>(0.0085)</v>
+        <v>(0.012)</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>[1]did_bc!D24</f>
-        <v>(0.029)</v>
+        <v>(0.0092)</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>[1]did_bc!E24</f>
+        <v>(0.029)</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>[1]did_bc!F24</f>
         <v>(0.036)</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f>[1]did_bc!F24</f>
-        <v>(0.015)</v>
       </c>
       <c r="H20" s="1" t="str">
         <f>[1]did_bc!G24</f>
-        <v>(0.010)</v>
+        <v>(0.015)</v>
       </c>
       <c r="I20" s="1" t="str">
         <f>[1]did_bc!H24</f>
-        <v>(0.031)</v>
+        <v>(0.012)</v>
       </c>
       <c r="J20" s="1" t="str">
         <f>[1]did_bc!I24</f>
+        <v>(0.011)</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f>[1]did_bc!J24</f>
+        <v>(0.031)</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f>[1]did_bc!K24</f>
         <v>(0.044)</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1718,34 +1978,42 @@
       </c>
       <c r="C21" s="1" t="str">
         <f>[1]did_bc!C26</f>
-        <v>-0.047***</v>
+        <v>-0.045***</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>[1]did_bc!D26</f>
-        <v>-0.028</v>
+        <v>-0.049***</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>[1]did_bc!E26</f>
+        <v>-0.028</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f>[1]did_bc!F26</f>
         <v>-0.049</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f>[1]did_bc!F26</f>
-        <v>0.000021</v>
       </c>
       <c r="H21" s="1" t="str">
         <f>[1]did_bc!G26</f>
-        <v>-0.039***</v>
+        <v>0.000021</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>[1]did_bc!H26</f>
-        <v>-0.034</v>
+        <v>-0.045***</v>
       </c>
       <c r="J21" s="1" t="str">
         <f>[1]did_bc!I26</f>
+        <v>-0.040***</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f>[1]did_bc!J26</f>
+        <v>-0.034</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f>[1]did_bc!K26</f>
         <v>0.041</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>[1]did_bc!A27</f>
         <v/>
@@ -1756,34 +2024,45 @@
       </c>
       <c r="C22" s="1" t="str">
         <f>[1]did_bc!C27</f>
-        <v>(0.010)</v>
+        <v>(0.015)</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>[1]did_bc!D27</f>
-        <v>(0.037)</v>
+        <v>(0.011)</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>[1]did_bc!E27</f>
+        <v>(0.037)</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>[1]did_bc!F27</f>
         <v>(0.043)</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f>[1]did_bc!F27</f>
-        <v>(0.019)</v>
       </c>
       <c r="H22" s="1" t="str">
         <f>[1]did_bc!G27</f>
-        <v>(0.013)</v>
+        <v>(0.019)</v>
       </c>
       <c r="I22" s="1" t="str">
         <f>[1]did_bc!H27</f>
-        <v>(0.039)</v>
+        <v>(0.015)</v>
       </c>
       <c r="J22" s="1" t="str">
         <f>[1]did_bc!I27</f>
+        <v>(0.014)</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f>[1]did_bc!J27</f>
+        <v>(0.039)</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f>[1]did_bc!K27</f>
         <v>(0.051)</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -1793,35 +2072,43 @@
       </c>
       <c r="C24" s="5" t="str">
         <f>[1]did_bc!C29</f>
-        <v>65360</v>
+        <v>63586</v>
       </c>
       <c r="D24" s="5" t="str">
         <f>[1]did_bc!D29</f>
-        <v>42839</v>
+        <v>65200</v>
       </c>
       <c r="E24" s="5" t="str">
         <f>[1]did_bc!E29</f>
+        <v>42839</v>
+      </c>
+      <c r="F24" s="5" t="str">
+        <f>[1]did_bc!F29</f>
         <v>24402</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="str">
-        <f>[1]did_bc!F29</f>
-        <v>65424</v>
-      </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="5" t="str">
         <f>[1]did_bc!G29</f>
-        <v>65360</v>
+        <v>65424</v>
       </c>
       <c r="I24" s="5" t="str">
         <f>[1]did_bc!H29</f>
-        <v>42839</v>
+        <v>63586</v>
       </c>
       <c r="J24" s="5" t="str">
         <f>[1]did_bc!I29</f>
+        <v>65200</v>
+      </c>
+      <c r="K24" s="5" t="str">
+        <f>[1]did_bc!J29</f>
+        <v>42839</v>
+      </c>
+      <c r="L24" s="5" t="str">
+        <f>[1]did_bc!K29</f>
         <v>24402</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1835,15 +2122,15 @@
       </c>
       <c r="D25" s="1" t="str">
         <f>[1]did_bc!D32</f>
-        <v>1205</v>
+        <v>1392</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>[1]did_bc!E32</f>
+        <v>1205</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>[1]did_bc!F32</f>
         <v>764</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <f>[1]did_bc!F32</f>
-        <v>1392</v>
       </c>
       <c r="H25" s="1" t="str">
         <f>[1]did_bc!G32</f>
@@ -1851,14 +2138,22 @@
       </c>
       <c r="I25" s="1" t="str">
         <f>[1]did_bc!H32</f>
-        <v>1205</v>
+        <v>1392</v>
       </c>
       <c r="J25" s="1" t="str">
         <f>[1]did_bc!I32</f>
+        <v>1392</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f>[1]did_bc!J32</f>
+        <v>1205</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f>[1]did_bc!K32</f>
         <v>764</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>[1]did_bc!A30</f>
         <v>R-sq</v>
@@ -1869,34 +2164,42 @@
       </c>
       <c r="C26" s="1" t="str">
         <f>[1]did_bc!C30</f>
-        <v>0.291</v>
+        <v>0.186</v>
       </c>
       <c r="D26" s="1" t="str">
         <f>[1]did_bc!D30</f>
-        <v>0.313</v>
+        <v>0.231</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>[1]did_bc!E30</f>
+        <v>0.313</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>[1]did_bc!F30</f>
         <v>0.318</v>
-      </c>
-      <c r="G26" s="1" t="str">
-        <f>[1]did_bc!F30</f>
-        <v>0.230</v>
       </c>
       <c r="H26" s="1" t="str">
         <f>[1]did_bc!G30</f>
-        <v>0.216</v>
+        <v>0.230</v>
       </c>
       <c r="I26" s="1" t="str">
         <f>[1]did_bc!H30</f>
-        <v>0.270</v>
+        <v>0.186</v>
       </c>
       <c r="J26" s="1" t="str">
         <f>[1]did_bc!I30</f>
+        <v>0.201</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f>[1]did_bc!J30</f>
+        <v>0.270</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f>[1]did_bc!K30</f>
         <v>0.267</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="str">
         <f>[1]did_bc!A31</f>
         <v>DepVarMean</v>
@@ -1907,39 +2210,47 @@
       </c>
       <c r="C27" s="7" t="str">
         <f>[1]did_bc!C31</f>
-        <v>4.16</v>
+        <v>3.21</v>
       </c>
       <c r="D27" s="7" t="str">
         <f>[1]did_bc!D31</f>
-        <v>1.60</v>
+        <v>3.69</v>
       </c>
       <c r="E27" s="7" t="str">
         <f>[1]did_bc!E31</f>
+        <v>1.60</v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f>[1]did_bc!F31</f>
         <v>1.28</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="str">
-        <f>[1]did_bc!F31</f>
-        <v>6.39</v>
-      </c>
+      <c r="G27" s="7"/>
       <c r="H27" s="7" t="str">
         <f>[1]did_bc!G31</f>
-        <v>5.68</v>
+        <v>6.39</v>
       </c>
       <c r="I27" s="7" t="str">
         <f>[1]did_bc!H31</f>
-        <v>6.19</v>
+        <v>3.21</v>
       </c>
       <c r="J27" s="7" t="str">
         <f>[1]did_bc!I31</f>
+        <v>5.59</v>
+      </c>
+      <c r="K27" s="7" t="str">
+        <f>[1]did_bc!J31</f>
+        <v>6.19</v>
+      </c>
+      <c r="L27" s="7" t="str">
+        <f>[1]did_bc!K31</f>
         <v>7.61</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
